--- a/supermarkt_sales.xlsx
+++ b/supermarkt_sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Awesome User\PycharmProjects\sedash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE55F827-1D98-4F27-991A-F60C5631EEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0112E0C2-7E3B-42B4-A1EB-06899BB39612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
